--- a/price1/TBMC_ITEMS_TO_MONITOR.xlsx
+++ b/price1/TBMC_ITEMS_TO_MONITOR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHTadenaFr\Documents\tbmc-data-management\price1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\price1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D9D82A-1EBC-4137-9A55-1C9AD37EE5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>url</t>
   </si>
@@ -35,31 +36,37 @@
     <t>type</t>
   </si>
   <si>
-    <t>welding rod</t>
-  </si>
-  <si>
-    <t>consumable</t>
-  </si>
-  <si>
-    <t>https://nesgpt.genai.nestle.com</t>
-  </si>
-  <si>
-    <t>https://www.inquirer.net/</t>
-  </si>
-  <si>
-    <t>https://www.inquirerrrrr.net/</t>
-  </si>
-  <si>
-    <t>tig</t>
-  </si>
-  <si>
-    <t>grinding disc</t>
+    <t>cutting discs, 4"ø, "tyrolit" brand, 15,300 rated rpm</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
+  </si>
+  <si>
+    <t>https://ph.rs-online.com/web/p/drill-bit-sets/0213001</t>
+  </si>
+  <si>
+    <t>class="current-price theme-money"</t>
+  </si>
+  <si>
+    <t>drill bit</t>
+  </si>
+  <si>
+    <t>data-testid="price-exc-vat"</t>
+  </si>
+  <si>
+    <t>identifier_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,20 +388,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -404,8 +413,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -413,36 +428,36 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DF019A75-B1FE-4475-8551-662302D67CB8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8176D059-4C31-4C73-892B-EFA71C560F5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/price1/TBMC_ITEMS_TO_MONITOR.xlsx
+++ b/price1/TBMC_ITEMS_TO_MONITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\price1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D9D82A-1EBC-4137-9A55-1C9AD37EE5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB3B0E5-04F6-42E4-98A3-1136F01A5BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>url</t>
   </si>
@@ -42,25 +42,13 @@
     <t>Consumables</t>
   </si>
   <si>
-    <t>identifier</t>
-  </si>
-  <si>
     <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
   </si>
   <si>
-    <t>https://ph.rs-online.com/web/p/drill-bit-sets/0213001</t>
-  </si>
-  <si>
-    <t>class="current-price theme-money"</t>
-  </si>
-  <si>
-    <t>drill bit</t>
-  </si>
-  <si>
-    <t>data-testid="price-exc-vat"</t>
-  </si>
-  <si>
-    <t>identifier_type</t>
+    <t>current-price theme-money</t>
+  </si>
+  <si>
+    <t>classs</t>
   </si>
 </sst>
 </file>
@@ -389,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,10 +388,10 @@
     <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -414,13 +402,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -428,36 +413,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{DF019A75-B1FE-4475-8551-662302D67CB8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8176D059-4C31-4C73-892B-EFA71C560F5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/price1/TBMC_ITEMS_TO_MONITOR.xlsx
+++ b/price1/TBMC_ITEMS_TO_MONITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\00_ML\00_Power BI\docu1\tbmc-data-management\price1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB3B0E5-04F6-42E4-98A3-1136F01A5BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BEE32D-9F4F-4220-BCB0-D012E4430848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>https://vertexpowertools.com/products/tyrolit-cutting-disc-4-for-metal-basic</t>
   </si>
   <si>
+    <t>classs</t>
+  </si>
+  <si>
     <t>current-price theme-money</t>
-  </si>
-  <si>
-    <t>classs</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
